--- a/TBtestProject/data/test_params.xlsx
+++ b/TBtestProject/data/test_params.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="620" yWindow="800" windowWidth="27240" windowHeight="16820" tabRatio="500"/>
+    <workbookView xWindow="280" yWindow="800" windowWidth="27240" windowHeight="16820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>username</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,10 +49,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用户名和密码不匹配</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>msg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -61,27 +57,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>qazwsxedcrfv180000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入账户名和密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请填写账户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>18000000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qazwsxedcrfv180000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请输入账户名和密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请输入密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请填写账户名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你输入的密码和账户名不匹配，是否忘记密码或忘记会员名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -89,7 +81,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -110,6 +102,24 @@
       <color rgb="FF008080"/>
       <name val="Menlo"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -128,8 +138,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -146,8 +158,10 @@
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -425,7 +439,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -443,15 +457,15 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C2" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>2</v>
@@ -459,10 +473,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>3</v>
@@ -470,28 +484,20 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
@@ -501,5 +507,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>